--- a/StructureDefinition-profile-Substance.xlsx
+++ b/StructureDefinition-profile-Substance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="260">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.8012811-06:00</t>
+    <t>2026-02-09T22:05:43.3476087-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -601,11 +601,20 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>Substance.code.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Substance.code|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Substance.code from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Substance.code` is mapped to FHIR R4 element `Substance.code`.</t>
   </si>
   <si>
     <t>Substance.code.coding</t>
@@ -2945,12 +2954,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>76</v>
       </c>
@@ -2971,16 +2982,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>169</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3056,10 +3067,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3082,19 +3093,19 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3143,7 +3154,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3158,10 +3169,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3169,10 +3180,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3198,16 +3209,16 @@
         <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3256,7 +3267,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3271,10 +3282,10 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3282,10 +3293,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3311,10 +3322,10 @@
         <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3365,7 +3376,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3380,7 +3391,7 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3391,10 +3402,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3417,13 +3428,13 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3431,7 +3442,7 @@
         <v>76</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>76</v>
@@ -3476,7 +3487,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3491,7 +3502,7 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3502,10 +3513,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3611,10 +3622,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3643,7 +3654,7 @@
         <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>135</v>
@@ -3722,14 +3733,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3751,10 +3762,10 @@
         <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>135</v>
@@ -3809,7 +3820,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3835,10 +3846,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3864,10 +3875,10 @@
         <v>144</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3918,7 +3929,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3944,10 +3955,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3970,13 +3981,13 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4027,7 +4038,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4042,7 +4053,7 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4053,10 +4064,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4079,13 +4090,13 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4136,7 +4147,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4151,7 +4162,7 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4162,10 +4173,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4188,13 +4199,13 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4245,7 +4256,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4260,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4271,10 +4282,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4380,10 +4391,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4412,7 +4423,7 @@
         <v>133</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>135</v>
@@ -4491,14 +4502,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4520,10 +4531,10 @@
         <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>135</v>
@@ -4578,7 +4589,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4604,10 +4615,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4630,13 +4641,13 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4687,7 +4698,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4702,7 +4713,7 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4713,10 +4724,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4739,13 +4750,13 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4775,7 +4786,7 @@
         <v>171</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>173</v>
@@ -4796,7 +4807,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4811,7 +4822,7 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-profile-Substance.xlsx
+++ b/StructureDefinition-profile-Substance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="266">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3476087-06:00</t>
+    <t>2026-02-17T14:42:26.9233903-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -614,7 +614,7 @@
     <t>Cross-version extension for Substance.code from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Substance.code` is mapped to FHIR R4 element `Substance.code`.</t>
+    <t>Element `Substance.code` has is mapped to FHIR R4 element `Substance.code`, but has no comparisons.</t>
   </si>
   <si>
     <t>Substance.code.coding</t>
@@ -783,6 +783,26 @@
   </si>
   <si>
     <t>Substance.ingredient.extension</t>
+  </si>
+  <si>
+    <t>Substance.ingredient.extension:ingredient</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Substance.ingredient|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Substance.ingredient from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Substance.ingredient` has is mapped to FHIR R4 element `Substance.ingredient`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Substance.ingredient.modifierExtension</t>
@@ -1127,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1136,7 +1156,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.0234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.9921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1146,7 +1166,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4398,7 +4418,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4420,14 +4440,12 @@
         <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4464,16 +4482,14 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>188</v>
@@ -4491,7 +4507,7 @@
         <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4505,11 +4521,13 @@
         <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4522,26 +4540,24 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4589,7 +4605,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4598,13 +4614,13 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4615,42 +4631,46 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4698,22 +4718,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4724,10 +4744,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4735,7 +4755,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -4750,13 +4770,13 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4783,13 +4803,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -4807,10 +4827,10 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>86</v>
@@ -4828,6 +4848,115 @@
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Substance.xlsx
+++ b/StructureDefinition-profile-Substance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9233903-06:00</t>
+    <t>2026-02-20T11:59:20.956798-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Substance|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Substance</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -607,7 +607,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Substance.code|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Substance.code}
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
     <t>ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Substance.ingredient|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Substance.ingredient}
 </t>
   </si>
   <si>
@@ -1166,7 +1166,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Substance.xlsx
+++ b/StructureDefinition-profile-Substance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="260">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.956798-06:00</t>
+    <t>2026-02-21T13:36:54.3626356-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Substance</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Substance|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -607,14 +607,14 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Substance.code}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Substance.code|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Substance.code from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Substance.code` has is mapped to FHIR R4 element `Substance.code`, but has no comparisons.</t>
+    <t>Element `Substance.code` is mapped to FHIR R4 element `Substance.code` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Substance.code.coding</t>
@@ -783,26 +783,6 @@
   </si>
   <si>
     <t>Substance.ingredient.extension</t>
-  </si>
-  <si>
-    <t>Substance.ingredient.extension:ingredient</t>
-  </si>
-  <si>
-    <t>ingredient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Substance.ingredient}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Substance.ingredient from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Substance.ingredient` has is mapped to FHIR R4 element `Substance.ingredient`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Substance.ingredient.modifierExtension</t>
@@ -1147,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1156,7 +1136,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.9921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.0234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1166,7 +1146,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4418,7 +4398,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4440,12 +4420,14 @@
         <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4482,14 +4464,16 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>188</v>
@@ -4507,7 +4491,7 @@
         <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4521,13 +4505,11 @@
         <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4540,24 +4522,26 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4605,7 +4589,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4614,13 +4598,13 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4631,46 +4615,42 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4718,22 +4698,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4744,10 +4724,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4755,7 +4735,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -4770,13 +4750,13 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4803,13 +4783,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -4827,10 +4807,10 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>86</v>
@@ -4848,115 +4828,6 @@
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
     </row>
